--- a/datos_seguimiento_medios.xlsx
+++ b/datos_seguimiento_medios.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ahorro de costes por publicidad</t>
+          <t>Tráfico orgánico para el medio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -568,10 +568,10 @@
         <v>0.15</v>
       </c>
       <c r="D7" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="E7" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="8">
